--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_concproduct_Auto_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_concproduct_Auto_Fiets.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>513</v>
+        <v>509.4717834624431</v>
       </c>
       <c r="C2">
-        <v>357</v>
+        <v>355.3164277330865</v>
       </c>
       <c r="D2">
-        <v>306</v>
+        <v>304.496326895058</v>
       </c>
       <c r="E2">
-        <v>282</v>
+        <v>280.0897893419756</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>603</v>
+        <v>598.9935381844241</v>
       </c>
       <c r="C3">
-        <v>420</v>
+        <v>419.091515081482</v>
       </c>
       <c r="D3">
-        <v>359</v>
+        <v>357.3594592318457</v>
       </c>
       <c r="E3">
-        <v>333</v>
+        <v>331.5630083491055</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>576</v>
+        <v>572.7150082520694</v>
       </c>
       <c r="C4">
-        <v>404</v>
+        <v>402.0101658226635</v>
       </c>
       <c r="D4">
-        <v>345</v>
+        <v>343.8982688741974</v>
       </c>
       <c r="E4">
-        <v>321</v>
+        <v>319.5015104924415</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>397</v>
+        <v>393.8699112426604</v>
       </c>
       <c r="C5">
-        <v>277</v>
+        <v>276.3110768592335</v>
       </c>
       <c r="D5">
-        <v>234</v>
+        <v>232.8408550402498</v>
       </c>
       <c r="E5">
-        <v>220</v>
+        <v>218.7053349206821</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>353</v>
+        <v>350.8963840745712</v>
       </c>
       <c r="C6">
-        <v>245</v>
+        <v>244.5030475833582</v>
       </c>
       <c r="D6">
-        <v>208</v>
+        <v>207.1892605313779</v>
       </c>
       <c r="E6">
-        <v>193</v>
+        <v>191.9988340830891</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>37</v>
+        <v>36.68411565055313</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>25.58486625401695</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>21.91596888786884</v>
       </c>
       <c r="E7">
-        <v>20</v>
+        <v>20.2530758127735</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2012</v>
+        <v>1998.468025715314</v>
       </c>
       <c r="C8">
-        <v>1399</v>
+        <v>1393.8534122833</v>
       </c>
       <c r="D8">
-        <v>1210</v>
+        <v>1204.279024121445</v>
       </c>
       <c r="E8">
-        <v>1108</v>
+        <v>1103.372767904274</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>506</v>
+        <v>502.3898030613828</v>
       </c>
       <c r="C9">
-        <v>353</v>
+        <v>351.7173266962726</v>
       </c>
       <c r="D9">
-        <v>301</v>
+        <v>299.7340045080317</v>
       </c>
       <c r="E9">
-        <v>280</v>
+        <v>278.4070048960226</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>206</v>
+        <v>204.4680061353051</v>
       </c>
       <c r="C10">
-        <v>144</v>
+        <v>143.1438391229902</v>
       </c>
       <c r="D10">
-        <v>126</v>
+        <v>125.5911132001598</v>
       </c>
       <c r="E10">
-        <v>116</v>
+        <v>115.0712114082426</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>38</v>
+        <v>37.68742058254945</v>
       </c>
       <c r="C11">
-        <v>25</v>
+        <v>25.06104686309147</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>21.70492669859174</v>
       </c>
       <c r="E11">
-        <v>22</v>
+        <v>21.43795693297779</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>88</v>
+        <v>87.08378576801529</v>
       </c>
       <c r="C12">
-        <v>65</v>
+        <v>64.70116160461085</v>
       </c>
       <c r="D12">
-        <v>57</v>
+        <v>56.98604572718838</v>
       </c>
       <c r="E12">
-        <v>52</v>
+        <v>51.66515459616287</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>116</v>
+        <v>114.5930839945038</v>
       </c>
       <c r="C13">
-        <v>80</v>
+        <v>79.59768252295348</v>
       </c>
       <c r="D13">
-        <v>71</v>
+        <v>70.57154994444538</v>
       </c>
       <c r="E13">
-        <v>66</v>
+        <v>65.4454097161223</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_concproduct_Auto_Fiets.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/inwoners/restdag/Ontpl_concproduct_Auto_Fiets.xlsx
@@ -391,13 +391,13 @@
         <v>509.4717834624431</v>
       </c>
       <c r="C2">
-        <v>355.3164277330865</v>
+        <v>355.3164277330868</v>
       </c>
       <c r="D2">
-        <v>304.496326895058</v>
+        <v>304.4963268950578</v>
       </c>
       <c r="E2">
-        <v>280.0897893419756</v>
+        <v>280.0897893419755</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>598.9935381844241</v>
+        <v>598.9935381844242</v>
       </c>
       <c r="C3">
-        <v>419.091515081482</v>
+        <v>419.0915150814818</v>
       </c>
       <c r="D3">
         <v>357.3594592318457</v>
       </c>
       <c r="E3">
-        <v>331.5630083491055</v>
+        <v>331.5630083491056</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,10 +422,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>572.7150082520694</v>
+        <v>572.7150082520693</v>
       </c>
       <c r="C4">
-        <v>402.0101658226635</v>
+        <v>402.0101658226636</v>
       </c>
       <c r="D4">
         <v>343.8982688741974</v>
@@ -439,13 +439,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>393.8699112426604</v>
+        <v>393.8699112426607</v>
       </c>
       <c r="C5">
-        <v>276.3110768592335</v>
+        <v>276.3110768592336</v>
       </c>
       <c r="D5">
-        <v>232.8408550402498</v>
+        <v>232.8408550402497</v>
       </c>
       <c r="E5">
         <v>218.7053349206821</v>
@@ -456,13 +456,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>350.8963840745712</v>
+        <v>350.8963840745715</v>
       </c>
       <c r="C6">
         <v>244.5030475833582</v>
       </c>
       <c r="D6">
-        <v>207.1892605313779</v>
+        <v>207.1892605313775</v>
       </c>
       <c r="E6">
         <v>191.9988340830891</v>
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>36.68411565055313</v>
+        <v>36.68411565055315</v>
       </c>
       <c r="C7">
         <v>25.58486625401695</v>
       </c>
       <c r="D7">
-        <v>21.91596888786884</v>
+        <v>21.91596888786883</v>
       </c>
       <c r="E7">
-        <v>20.2530758127735</v>
+        <v>20.25307581277349</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,10 +490,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1998.468025715314</v>
+        <v>1998.468025715313</v>
       </c>
       <c r="C8">
-        <v>1393.8534122833</v>
+        <v>1393.853412283299</v>
       </c>
       <c r="D8">
         <v>1204.279024121445</v>
@@ -507,13 +507,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>502.3898030613828</v>
+        <v>502.3898030613827</v>
       </c>
       <c r="C9">
-        <v>351.7173266962726</v>
+        <v>351.7173266962727</v>
       </c>
       <c r="D9">
-        <v>299.7340045080317</v>
+        <v>299.734004508032</v>
       </c>
       <c r="E9">
         <v>278.4070048960226</v>
@@ -524,7 +524,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>204.4680061353051</v>
+        <v>204.4680061353053</v>
       </c>
       <c r="C10">
         <v>143.1438391229902</v>
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>37.68742058254945</v>
+        <v>37.68742058254948</v>
       </c>
       <c r="C11">
-        <v>25.06104686309147</v>
+        <v>25.06104686309148</v>
       </c>
       <c r="D11">
         <v>21.70492669859174</v>
       </c>
       <c r="E11">
-        <v>21.43795693297779</v>
+        <v>21.43795693297778</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>87.08378576801529</v>
+        <v>87.08378576801532</v>
       </c>
       <c r="C12">
-        <v>64.70116160461085</v>
+        <v>64.70116160461083</v>
       </c>
       <c r="D12">
-        <v>56.98604572718838</v>
+        <v>56.9860457271884</v>
       </c>
       <c r="E12">
-        <v>51.66515459616287</v>
+        <v>51.66515459616286</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>114.5930839945038</v>
+        <v>114.5930839945039</v>
       </c>
       <c r="C13">
-        <v>79.59768252295348</v>
+        <v>79.59768252295345</v>
       </c>
       <c r="D13">
         <v>70.57154994444538</v>
       </c>
       <c r="E13">
-        <v>65.4454097161223</v>
+        <v>65.44540971612228</v>
       </c>
     </row>
   </sheetData>
